--- a/data/trans_dic/P21D_5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21D_5_R-Estudios-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.003921602286138397</v>
+        <v>0.003921602286138398</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.005246619902836556</v>
+        <v>0.005246619902836557</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.004700528267808344</v>
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.001062752187658779</v>
+        <v>0.001062932277528566</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001342568457163444</v>
+        <v>0.001159001838261206</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02139701264516332</v>
+        <v>0.01997436225735925</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01484310194835645</v>
+        <v>0.01583494316121004</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0117446789989708</v>
+        <v>0.01184106563865961</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.0006881654325431163</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.00414862248142564</v>
+        <v>0.004148622481425639</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.002442572632417845</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001654734328129775</v>
+        <v>0.001857311349401023</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0009966858652463355</v>
+        <v>0.001102839132391753</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.003889795938200676</v>
+        <v>0.003473404777222691</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.008836479821584278</v>
+        <v>0.008723582760000162</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.005250877416495375</v>
+        <v>0.005361586201299287</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.002023126815237526</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.003514317860867042</v>
+        <v>0.003514317860867041</v>
       </c>
     </row>
     <row r="11">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.000861753060340819</v>
+        <v>0.0008485696065086535</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01954499624931825</v>
+        <v>0.01720235800282807</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0103181450155327</v>
+        <v>0.01019060116444763</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01051364084103875</v>
+        <v>0.0107198618802386</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0007159678967410538</v>
+        <v>0.0004228142830289597</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00201519255050735</v>
+        <v>0.002054313703286098</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001757065302724023</v>
+        <v>0.001711922371854696</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.005538780582060952</v>
+        <v>0.005482134881839971</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.00745718262043121</v>
+        <v>0.007288606407083479</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.005132667377748248</v>
+        <v>0.005240502296204624</v>
       </c>
     </row>
     <row r="16">
@@ -916,7 +916,7 @@
         <v>385</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>826</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5427</v>
+        <v>5067</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5370</v>
+        <v>5729</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7228</v>
+        <v>7288</v>
       </c>
     </row>
     <row r="8">
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1631</v>
+        <v>1830</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1937</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>3728</v>
+        <v>3329</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8709</v>
+        <v>8597</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10207</v>
+        <v>10422</v>
       </c>
     </row>
     <row r="12">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6786</v>
+        <v>5973</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3531</v>
+        <v>3488</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7249</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1116</v>
+        <v>659</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3405</v>
+        <v>3471</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5708</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8636</v>
+        <v>8548</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12599</v>
+        <v>12315</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16675</v>
+        <v>17025</v>
       </c>
     </row>
     <row r="20">
